--- a/data/landings/cdfw/public/fish_bulletins/raw/fb170/raw/Table17.xlsx
+++ b/data/landings/cdfw/public/fish_bulletins/raw/fb170/raw/Table17.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cfree/Dropbox/Chris/UCSB/projects/wc_cc_synthesis/data/landings/cdfw/public/fish_bulletins/fb170/raw/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cfree/Dropbox/Chris/UCSB/projects/wc_cc_synthesis/data/landings/cdfw/public/fish_bulletins/raw/fb170/raw/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{54A4AECB-745E-2A41-A15F-1AC1CA2233D4}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E27FF7B0-AA63-2742-8DAA-3E29B30A1293}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="6320" yWindow="460" windowWidth="19280" windowHeight="15540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -579,13 +579,13 @@
   <dimension ref="A1:H115"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A71" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D1" sqref="A1:D1"/>
+      <pane ySplit="1" topLeftCell="A100" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A109" sqref="A109"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="14.1640625" style="11" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="22" style="11" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="22" style="7" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="10.1640625" style="8" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="9.5" style="8" bestFit="1" customWidth="1"/>
@@ -2254,10 +2254,10 @@
     </row>
     <row r="115" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A115" s="7" t="s">
-        <v>6</v>
+        <v>20</v>
       </c>
       <c r="B115" s="7" t="s">
-        <v>20</v>
+        <v>41</v>
       </c>
       <c r="C115" s="8">
         <v>21986366</v>
